--- a/Images/functionality2.xlsx
+++ b/Images/functionality2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigDoc\HArray\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1275B1-DEC0-48A5-B9C0-144271296AB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED55A2-AA4B-4DA7-8315-757414B5EF02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{1E15A123-3782-4EEC-BF64-58DCAF7CF473}"/>
   </bookViews>
@@ -108,13 +108,13 @@
     <t>Memory Consumption</t>
   </si>
   <si>
-    <t>Overhead in Best Case *</t>
-  </si>
-  <si>
-    <t>Overhead in Worst Case *</t>
-  </si>
-  <si>
     <t>* Memory consumption is average value that depends on concrete implementation and nature of keys</t>
+  </si>
+  <si>
+    <t>* Overhead in Worst Case</t>
+  </si>
+  <si>
+    <t>* Overhead in Best Case</t>
   </si>
 </sst>
 </file>
@@ -284,6 +284,17 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -293,22 +304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,7 +635,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -647,234 +647,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
